--- a/OpenWorld/Resources/Consumables.xlsx
+++ b/OpenWorld/Resources/Consumables.xlsx
@@ -135,9 +135,6 @@
     <t>food</t>
   </si>
   <si>
-    <t>Apples</t>
-  </si>
-  <si>
     <t>Baked Potato</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>feet piece</t>
+  </si>
+  <si>
+    <t>Apple</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B1:B1048576"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -932,7 +932,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>35</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>35</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>35</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>35</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>35</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>35</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>35</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>35</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>35</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>35</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>35</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>35</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>35</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>35</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>35</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>35</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>35</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>35</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>35</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>35</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>35</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>35</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>35</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>35</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>35</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>35</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>35</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>35</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>35</v>
@@ -3017,13 +3017,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3058,7 +3058,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
